--- a/StructureDefinition-ext-R5-ImplementationGuide.def.page.xlsx
+++ b/StructureDefinition-ext-R5-ImplementationGuide.def.page.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -350,7 +350,7 @@
   </si>
   <si>
     <t>Element `ImplementationGuide.definition.page.source[x]` is part of an existing definition because parent element `ImplementationGuide.definition.page` requires a component extension (e.g., if this element is used as a content reference).
-Element `ImplementationGuide.definition.page.source[x]` is mapped to FHIR R4 structure `ImplementationGuide`, but has no target element specified.</t>
+Element `ImplementationGuide.definition.page.source[x]` is will have a context of ImplementationGuide.definition.page based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
   </si>
   <si>
     <t>Extension.extension:source.id</t>
